--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1749.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1749.xlsx
@@ -354,10 +354,10 @@
         <v>1.32170157307293</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.63529983986083</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1749.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1749.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6761689660317468</v>
+        <v>0.5146761536598206</v>
       </c>
       <c r="B1">
-        <v>1.32170157307293</v>
+        <v>0.6105854511260986</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.470643639564514</v>
       </c>
       <c r="E1">
-        <v>1.63529983986083</v>
+        <v>0.8930754065513611</v>
       </c>
     </row>
   </sheetData>
